--- a/src_files/data_files/nuclear_refined_parameters.xlsx
+++ b/src_files/data_files/nuclear_refined_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\north_european_model\src_files\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7B062E-90CF-4DF2-8A7E-4AED51D0E9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112667BD-6CAC-4323-BC24-7FEC8A3156F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Overview" sheetId="5" r:id="rId1"/>
     <sheet name="sources" sheetId="8" r:id="rId2"/>
     <sheet name="unittypedata" sheetId="1" r:id="rId3"/>
+    <sheet name="unitdata" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">unittypedata!$A$1:$AT$41</definedName>
@@ -136,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="254">
   <si>
     <t>Generator_ID</t>
   </si>
@@ -855,12 +856,6 @@
     <t>Technical lifetime</t>
   </si>
   <si>
-    <t>Furthermore, there was no time to integrate this file with the `build_input_data.py` script, so manual tweaking/scripting is required to actually make use of the data within.</t>
-  </si>
-  <si>
-    <t>2025-08-28</t>
-  </si>
-  <si>
     <t>GG-SMR project T5.3</t>
   </si>
   <si>
@@ -871,6 +866,39 @@
   </si>
   <si>
     <t>sources</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>capacity_output1</t>
+  </si>
+  <si>
+    <t>node_suffix_output2</t>
+  </si>
+  <si>
+    <t>capacity_input1</t>
+  </si>
+  <si>
+    <t>FI00</t>
+  </si>
+  <si>
+    <t>2025-09-05</t>
+  </si>
+  <si>
+    <t>Note that the investment costs don't cover power or district heating grid connection costs: E.g. a "Conventional LWR CHP" unit would likely require quite an atypical district heating connection due to its size and presumed distance from any urban areas.</t>
+  </si>
+  <si>
+    <t>unitdata</t>
+  </si>
+  <si>
+    <t>Contains GG-SMR project scenario data (something must be provided here for the `build_input_data.py` script to handle `unittypedata` properly)</t>
   </si>
 </sst>
 </file>
@@ -880,7 +908,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1005,6 +1033,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -1070,7 +1106,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1102,6 +1138,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1114,7 +1176,7 @@
     <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1164,6 +1226,12 @@
     <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="7" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Bad" xfId="6" builtinId="27"/>
@@ -1464,10 +1532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3663F0-AB1A-46E8-8388-53B6D5FF1219}">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1489,7 +1557,7 @@
         <v>47</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1505,7 +1573,7 @@
         <v>50</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1523,57 +1591,57 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="19" t="s">
         <v>57</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="19" t="s">
+        <v>142</v>
+      </c>
+    </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="19" t="s">
-        <v>142</v>
+      <c r="C11" s="19" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" s="19" t="s">
-        <v>196</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" s="19" t="s">
-        <v>143</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" s="19" t="s">
-        <v>242</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" s="19" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C16" s="19" t="s">
         <v>197</v>
       </c>
     </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="19" t="s">
+        <v>162</v>
+      </c>
+    </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="19" t="s">
-        <v>162</v>
+      <c r="C18" s="19" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C19" s="19" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C20" s="19" t="s">
-        <v>189</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
@@ -1598,7 +1666,7 @@
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
@@ -1640,7 +1708,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B34" s="19" t="s">
         <v>182</v>
@@ -1654,216 +1722,224 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B38" s="19" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="19" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="19" t="s">
         <v>194</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="19" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C41" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C42" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C43" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="19" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="19" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="19" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="19" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="19" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C50" s="19" t="s">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C51" s="19" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D51" s="19" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D52" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D53" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D54" s="19" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C54" s="19" t="s">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C55" s="19" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D55" s="19" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D56" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D57" s="19" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="19" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="19" t="s">
-        <v>140</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="19" t="s">
-        <v>78</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" s="19" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C64" s="19" t="s">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C65" s="19" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D65" s="19" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D66" s="19" t="s">
-        <v>152</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D67" s="19" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D68" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D69" s="19" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C69" s="19" t="s">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C70" s="19" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D70" s="19" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D71" s="19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D72" s="19" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D73" s="19" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D74" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D75" s="19" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C75" s="19" t="s">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C76" s="19" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D76" s="19" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="77" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D77" s="19" t="s">
-        <v>153</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D78" s="19" t="s">
-        <v>75</v>
+        <v>153</v>
       </c>
     </row>
     <row r="79" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D79" s="19" t="s">
-        <v>156</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D80" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D81" s="19" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1876,7 +1952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67666E7C-55B1-4C4C-A9E3-DDF36BAAB86E}">
   <dimension ref="A51:B143"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
@@ -2378,10 +2454,10 @@
   <dimension ref="A1:AV91"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AO2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8630,4 +8706,190 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2AA874B-DD2D-4BF5-A4E6-11D94865832F}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2">
+        <v>2025</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3">
+        <v>2025</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4">
+        <v>2025</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5">
+        <v>2025</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6">
+        <v>2025</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7">
+        <v>2025</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8">
+        <v>2025</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9">
+        <v>2025</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>